--- a/tool/04_compareTable/excel/ddl_usr.xlsx
+++ b/tool/04_compareTable/excel/ddl_usr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kitajimakeisatoshi/work-for-python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kitajimakeisatoshi/github/MyPythonScripts/tool/04_compareTable/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159CCA0-20FD-DA41-9B62-7F543F250E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46F9DD4-943A-AE43-AF74-A2EF7CC9596B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10860" yWindow="1620" windowWidth="16960" windowHeight="16860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
   <si>
     <t>tbl_a</t>
     <phoneticPr fontId="1"/>
@@ -151,12 +151,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1"/>
+    <t>col_b_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>col_b_3</t>
+  </si>
+  <si>
+    <t>tbl_e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>col_e_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>col_e_2</t>
+  </si>
+  <si>
+    <t>col_e_3</t>
   </si>
 </sst>
 </file>
@@ -892,23 +905,348 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97308087-A36A-6347-8B36-E306D2547DF4}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
